--- a/WebApplication3/wwwroot/Formatos/ComescuamaAlistCombustibleLubricante.xlsx
+++ b/WebApplication3/wwwroot/Formatos/ComescuamaAlistCombustibleLubricante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60C680D6-D802-4C54-BEDB-B4A71D676A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09993C5C-C8CB-416C-A7E1-EC8E8D876497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="8685" windowWidth="19665" windowHeight="6435" xr2:uid="{02F8BAE6-C88E-4432-8C46-58D6B18C7E34}"/>
+    <workbookView xWindow="3105" yWindow="9120" windowWidth="22320" windowHeight="6480" xr2:uid="{02F8BAE6-C88E-4432-8C46-58D6B18C7E34}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Unidad Naval</t>
   </si>
@@ -53,10 +53,7 @@
 Parcial</t>
   </si>
   <si>
-    <t>FM52</t>
-  </si>
-  <si>
-    <t>FM53</t>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -102,14 +99,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,44 +437,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>666</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>3</v>
       </c>
     </row>
